--- a/df_1/df_1_12.xlsx
+++ b/df_1/df_1_12.xlsx
@@ -662,382 +662,382 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.281 %</t>
+          <t>0,281</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.4255 %</t>
+          <t>0,4255</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.3266 %</t>
+          <t>0,3266</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.4282 %</t>
+          <t>0,4282</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4259 %</t>
+          <t>0,4259</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3553 %</t>
+          <t>0,3553</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.5259 %</t>
+          <t>0,5259</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6037 %</t>
+          <t>0,6037</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4541 %</t>
+          <t>0,4541</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.3979 %</t>
+          <t>0,3979</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.5493 %</t>
+          <t>0,5493</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.3931 %</t>
+          <t>0,3931</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.405 %</t>
+          <t>0,405</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.2265 %</t>
+          <t>0,2265</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3245 %</t>
+          <t>0,3245</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6695 %</t>
+          <t>0,6695</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.3768 %</t>
+          <t>0,3768</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.3198 %</t>
+          <t>0,3198</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.7895 %</t>
+          <t>0,7895</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.4212 %</t>
+          <t>0,4212</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.6264 %</t>
+          <t>0,6264</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.4281 %</t>
+          <t>0,4281</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.7763 %</t>
+          <t>0,7763</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.4145 %</t>
+          <t>0,4145</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5036 %</t>
+          <t>0,5036</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.3207 %</t>
+          <t>0,3207</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.359 %</t>
+          <t>0,359</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5592 %</t>
+          <t>0,5592</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5208 %</t>
+          <t>0,5208</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.3865 %</t>
+          <t>0,3865</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.3345 %</t>
+          <t>0,3345</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5645 %</t>
+          <t>0,5645</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4634 %</t>
+          <t>0,4634</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.3567 %</t>
+          <t>0,3567</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.3587 %</t>
+          <t>0,3587</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4085 %</t>
+          <t>0,4085</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.6821 %</t>
+          <t>0,6821</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.3214 %</t>
+          <t>0,3214</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.6951 %</t>
+          <t>0,6951</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.835 %</t>
+          <t>0,835</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.4761 %</t>
+          <t>0,4761</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.4034 %</t>
+          <t>0,4034</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.5626 %</t>
+          <t>0,5626</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.8715 %</t>
+          <t>0,8715</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.7033 %</t>
+          <t>0,7033</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.3968 %</t>
+          <t>0,3968</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.7273 %</t>
+          <t>0,7273</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1.8654 %</t>
+          <t>1,8654</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4844 %</t>
+          <t>0,4844</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.4083 %</t>
+          <t>0,4083</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.4417 %</t>
+          <t>0,4417</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1.0623 %</t>
+          <t>1,0623</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6178 %</t>
+          <t>0,6178</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.7844 %</t>
+          <t>0,7844</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.4766 %</t>
+          <t>0,4766</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.5644 %</t>
+          <t>0,5644</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1.0777 %</t>
+          <t>1,0777</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.599 %</t>
+          <t>0,599</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.5384 %</t>
+          <t>0,5384</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.4585 %</t>
+          <t>0,4585</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.7098 %</t>
+          <t>0,7098</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.5507 %</t>
+          <t>0,5507</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.8191 %</t>
+          <t>0,8191</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.6773 %</t>
+          <t>0,6773</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.4779 %</t>
+          <t>0,4779</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.5278 %</t>
+          <t>0,5278</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.4873 %</t>
+          <t>0,4873</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.7781 %</t>
+          <t>0,7781</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.4392 %</t>
+          <t>0,4392</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.6564 %</t>
+          <t>0,6564</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>3.3504 %</t>
+          <t>3,3504</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.7783 %</t>
+          <t>0,7783</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.8875 %</t>
+          <t>0,8875</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.7732 %</t>
+          <t>0,7732</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.949 %</t>
+          <t>0,949</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>1.4084 %</t>
+          <t>1,4084</t>
         </is>
       </c>
     </row>
@@ -1049,232 +1049,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.8343 %</t>
+          <t>10,8343</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.1212 %</t>
+          <t>0,1212</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4522 %</t>
+          <t>0,4522</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3843 %</t>
+          <t>0,3843</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.204 %</t>
+          <t>0,204</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2811 %</t>
+          <t>0,2811</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.1661 %</t>
+          <t>0,1661</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6988 %</t>
+          <t>0,6988</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.2663 %</t>
+          <t>0,2663</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.1829 %</t>
+          <t>0,1829</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3407 %</t>
+          <t>0,3407</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.0266 %</t>
+          <t>1,0266</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.5993 %</t>
+          <t>1,5993</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.538 %</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.4162 %</t>
+          <t>0,4162</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.8106 %</t>
+          <t>0,8106</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.189 %</t>
+          <t>3,189</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.1921 %</t>
+          <t>1,1921</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.0164 %</t>
+          <t>1,0164</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.9163 %</t>
+          <t>0,9163</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.8518 %</t>
+          <t>0,8518</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.1228 %</t>
+          <t>1,1228</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.0762 %</t>
+          <t>1,0762</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.2176 %</t>
+          <t>1,2176</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.9791 %</t>
+          <t>0,9791</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.3027 %</t>
+          <t>1,3027</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6499 %</t>
+          <t>0,6499</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.609 %</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.5324 %</t>
+          <t>0,5324</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.6845 %</t>
+          <t>0,6845</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.6675 %</t>
+          <t>0,6675</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.2823 %</t>
+          <t>0,2823</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.3313 %</t>
+          <t>0,3313</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2611 %</t>
+          <t>0,2611</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.4818 %</t>
+          <t>0,4818</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.2584 %</t>
+          <t>0,2584</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.447 %</t>
+          <t>0,447</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.197 %</t>
+          <t>0,197</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4075 %</t>
+          <t>0,4075</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.4898 %</t>
+          <t>0,4898</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.3382 %</t>
+          <t>0,3382</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.251 %</t>
+          <t>0,251</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.1727 %</t>
+          <t>0,1727</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.156 %</t>
+          <t>0,156</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.3751 %</t>
+          <t>0,3751</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.343 %</t>
+          <t>0,343</t>
         </is>
       </c>
     </row>
@@ -1286,262 +1286,262 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.875 %</t>
+          <t>2,875</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.7289 %</t>
+          <t>3,7289</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.4937 %</t>
+          <t>3,4937</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.1221 %</t>
+          <t>2,1221</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.7452 %</t>
+          <t>1,7452</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.91 %</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.4796 %</t>
+          <t>0,4796</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2757 %</t>
+          <t>0,2757</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1785 %</t>
+          <t>0,1785</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.1357 %</t>
+          <t>0,1357</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0775 %</t>
+          <t>0,0775</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.055 %</t>
+          <t>0,055</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0562 %</t>
+          <t>0,0562</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0662 %</t>
+          <t>0,0662</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0539 %</t>
+          <t>0,0539</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0522 %</t>
+          <t>0,0522</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0576 %</t>
+          <t>0,0576</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0346 %</t>
+          <t>0,0346</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0338 %</t>
+          <t>0,0338</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0428 %</t>
+          <t>0,0428</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.0524 %</t>
+          <t>0,0524</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0798 %</t>
+          <t>0,0798</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.1185 %</t>
+          <t>0,1185</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.1915 %</t>
+          <t>0,1915</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.2469 %</t>
+          <t>0,2469</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4015 %</t>
+          <t>0,4015</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.5917 %</t>
+          <t>0,5917</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.6936 %</t>
+          <t>0,6936</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.7558 %</t>
+          <t>0,7558</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.7973 %</t>
+          <t>0,7973</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.6408 %</t>
+          <t>0,6408</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4556 %</t>
+          <t>0,4556</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.4108 %</t>
+          <t>0,4108</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.3758 %</t>
+          <t>0,3758</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.4526 %</t>
+          <t>0,4526</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.4709 %</t>
+          <t>0,4709</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.4813 %</t>
+          <t>0,4813</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.4899 %</t>
+          <t>0,4899</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.6054 %</t>
+          <t>0,6054</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1.0456 %</t>
+          <t>1,0456</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.7771 %</t>
+          <t>1,7771</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>4.4233 %</t>
+          <t>4,4233</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>4.7881 %</t>
+          <t>4,7881</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>3.5627 %</t>
+          <t>3,5627</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3.1817 %</t>
+          <t>3,1817</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2.7701 %</t>
+          <t>2,7701</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>3.305 %</t>
+          <t>3,305</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2.1184 %</t>
+          <t>2,1184</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1.8943 %</t>
+          <t>1,8943</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1.4472 %</t>
+          <t>1,4472</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1.5184 %</t>
+          <t>1,5184</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2.8224 %</t>
+          <t>2,8224</t>
         </is>
       </c>
     </row>
